--- a/config_11.16/game_enter_btn_config.xlsx
+++ b/config_11.16/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1598,15 +1598,15 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"act_064_xyfd"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>101#11;93#151#</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>150;148;126#</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_064_xyfd",</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2681,7 +2681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2736,7 +2736,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -3362,11 +3362,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F127" sqref="F127"/>
+      <selection pane="bottomRight" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6075,7 +6075,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -6338,7 +6338,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
